--- a/Way_Of_Proceeding.xlsx
+++ b/Way_Of_Proceeding.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>１．前提</t>
     <rPh sb="2" eb="4">
@@ -758,6 +758,81 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　第3回(4/20)：</t>
+    <rPh sb="1" eb="2">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>□前回の振返り</t>
+    <rPh sb="1" eb="3">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>フリカエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>□持ち帰りタスク状況の確認</t>
+    <rPh sb="1" eb="2">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>□優先度の高いロジックの詳細確認</t>
+    <rPh sb="1" eb="4">
+      <t>ユウセンド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>□追加ロジックの確認</t>
+    <rPh sb="1" eb="3">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>□次回の場所の決定</t>
+    <rPh sb="1" eb="3">
+      <t>ジカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -865,13 +940,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -919,13 +994,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -984,13 +1059,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1039,13 +1114,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1104,13 +1179,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1163,13 +1238,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1228,13 +1303,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1283,13 +1358,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1348,13 +1423,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1412,7 +1487,7 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1331134" cy="459100"/>
@@ -1480,13 +1555,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>130967</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1532,7 +1607,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1159035" cy="459100"/>
@@ -1613,13 +1688,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>154781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1665,7 +1740,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>139303</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>173832</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="975523" cy="459100"/>
@@ -1743,13 +1818,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1795,7 +1870,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>222647</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>17859</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1224566" cy="459100"/>
@@ -1876,7 +1951,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2472536" cy="275717"/>
@@ -1940,7 +2015,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2977290" cy="275717"/>
@@ -1992,13 +2067,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2096,13 +2171,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2160,13 +2235,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2219,13 +2294,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2560,13 +2635,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F45"/>
+  <dimension ref="B2:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="S70" sqref="S70"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.625" style="1"/>
     <col min="2" max="2" width="3.625" style="2"/>
@@ -2711,78 +2786,112 @@
     <row r="30" spans="2:6" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C32" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C33" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C34" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C35" s="4"/>
       <c r="D35" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" ht="18.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
       <c r="D37" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C38" s="4"/>
       <c r="D38" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C39" s="4"/>
       <c r="D39" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C40" s="4"/>
       <c r="D40" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C41" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="C42" s="4"/>
       <c r="D42" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" collapsed="1" x14ac:dyDescent="0.3">
       <c r="C43" s="4"/>
     </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="3"/>
+    </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C46" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C47" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="4"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
         <v>3</v>
       </c>
     </row>
